--- a/data/Feature List.xlsx
+++ b/data/Feature List.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhdo/Documents/Spring24/data mining/project/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6708D448-AE9A-6541-A65A-5867066F2D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D5C7A-0713-6F4E-96EC-09102D14BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BE4166CB-8F02-BE49-9183-0DE3F10B5885}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16020" windowHeight="17500" activeTab="2" xr2:uid="{BE4166CB-8F02-BE49-9183-0DE3F10B5885}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Features" sheetId="1" r:id="rId1"/>
     <sheet name="Long list" sheetId="2" r:id="rId2"/>
+    <sheet name="Short list" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="242">
   <si>
     <t>Model</t>
   </si>
@@ -1180,12 +1181,41 @@
 F &lt; 1 =&gt; Not manipulate</t>
     </r>
   </si>
+  <si>
+    <t>Pressure from the third part</t>
+  </si>
+  <si>
+    <r>
+      <t>RSST = Δ(WC + NCO + FIN) / Average total assets
+WC = (CurrentAsset - Liability_ST)
+NCO = (TotalAssets - CurrentAsset -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prepaid_LT - InvestmentProperties) - (TotalLiability - Liability_ST -  Debt_LT)
+FIN = (Investment_ST + Investment_LT) - (Debt_LT + Debt_ST)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1259,6 +1289,38 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1292,7 +1354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1487,11 +1549,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1562,58 +1687,125 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1950,9 +2142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF5404C-2FB9-A84A-A471-3C07D8A48190}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="F1" zoomScale="114" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1990,21 +2182,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2024,8 +2216,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
@@ -2043,8 +2235,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2060,8 +2252,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2079,21 +2271,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2113,8 +2305,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
@@ -2132,8 +2324,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
@@ -2151,8 +2343,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2170,8 +2362,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2191,8 +2383,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
@@ -2210,8 +2402,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
@@ -2229,8 +2421,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
@@ -2248,21 +2440,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="56" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2282,8 +2474,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="8" t="s">
         <v>70</v>
       </c>
@@ -2301,8 +2493,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="8" t="s">
         <v>71</v>
       </c>
@@ -2320,8 +2512,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
@@ -2339,8 +2531,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2360,8 +2552,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
@@ -2379,7 +2571,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="10" t="s">
         <v>86</v>
       </c>
@@ -2421,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB704BA4-11DE-C548-BB4C-167F9E0B8B50}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A36" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2448,7 +2640,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -2462,7 +2654,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2666,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="11" t="s">
         <v>99</v>
       </c>
@@ -2486,7 +2678,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="11" t="s">
         <v>101</v>
       </c>
@@ -2498,7 +2690,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="11" t="s">
         <v>103</v>
       </c>
@@ -2510,7 +2702,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="11" t="s">
         <v>105</v>
       </c>
@@ -2522,7 +2714,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="11" t="s">
         <v>107</v>
       </c>
@@ -2534,7 +2726,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="11" t="s">
         <v>109</v>
       </c>
@@ -2546,7 +2738,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="11" t="s">
         <v>111</v>
       </c>
@@ -2558,7 +2750,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -2570,7 +2762,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="11" t="s">
         <v>115</v>
       </c>
@@ -2582,11 +2774,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="37" t="s">
         <v>236</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -2594,7 +2786,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="22" t="s">
         <v>116</v>
       </c>
@@ -2606,7 +2798,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="66" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -2620,7 +2812,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="13" t="s">
         <v>123</v>
       </c>
@@ -2632,7 +2824,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="13" t="s">
         <v>126</v>
       </c>
@@ -2644,7 +2836,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="13" t="s">
         <v>128</v>
       </c>
@@ -2657,7 +2849,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="13" t="s">
         <v>130</v>
       </c>
@@ -2669,7 +2861,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="28" t="s">
         <v>132</v>
       </c>
@@ -2681,7 +2873,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="62" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2695,7 +2887,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
@@ -2707,7 +2899,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="11" t="s">
         <v>138</v>
       </c>
@@ -2719,7 +2911,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="11" t="s">
         <v>140</v>
       </c>
@@ -2731,7 +2923,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="11" t="s">
         <v>142</v>
       </c>
@@ -2743,7 +2935,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="11" t="s">
         <v>144</v>
       </c>
@@ -2755,7 +2947,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="11" t="s">
         <v>146</v>
       </c>
@@ -2767,7 +2959,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
@@ -2779,7 +2971,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="11" t="s">
         <v>149</v>
       </c>
@@ -2791,7 +2983,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="11" t="s">
         <v>151</v>
       </c>
@@ -2803,7 +2995,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="11" t="s">
         <v>153</v>
       </c>
@@ -2815,7 +3007,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="11" t="s">
         <v>155</v>
       </c>
@@ -2827,7 +3019,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="22" t="s">
         <v>157</v>
       </c>
@@ -2839,7 +3031,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="66" t="s">
         <v>159</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -2853,7 +3045,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="13" t="s">
         <v>161</v>
       </c>
@@ -2865,7 +3057,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="13" t="s">
         <v>162</v>
       </c>
@@ -2877,7 +3069,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="13" t="s">
         <v>169</v>
       </c>
@@ -2889,7 +3081,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="13" t="s">
         <v>168</v>
       </c>
@@ -2901,7 +3093,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="28" t="s">
         <v>171</v>
       </c>
@@ -2913,7 +3105,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="69" t="s">
         <v>176</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -2927,7 +3119,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="11" t="s">
         <v>173</v>
       </c>
@@ -2939,7 +3131,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="11" t="s">
         <v>174</v>
       </c>
@@ -2951,7 +3143,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="22" t="s">
         <v>175</v>
       </c>
@@ -3016,4 +3208,215 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C9505D-EF8A-CD42-A473-5E1B64F6A876}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="72"/>
+      <c r="B3" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="72"/>
+      <c r="B4" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>